--- a/data/case1/20/P_device_5.xlsx
+++ b/data/case1/20/P_device_5.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.07458800080393882</v>
+        <v>0.022087514383888625</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.074588002316352764</v>
+        <v>-0.022087514893434801</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.077976906640472743</v>
+        <v>-0.049680798825446446</v>
       </c>
       <c r="B2" s="0">
-        <v>0.077976905148473899</v>
+        <v>0.049680798343901274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0072586107889524082</v>
+        <v>0.067383652520316806</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0072586123210174975</v>
+        <v>-0.067383652995764015</v>
       </c>
     </row>
     <row r="4">
